--- a/data/predictions/gender/gay_marr/overall/republican.xlsx
+++ b/data/predictions/gender/gay_marr/overall/republican.xlsx
@@ -745,13 +745,13 @@
         <v>0.1204713779600217</v>
       </c>
       <c r="G34">
-        <v>0.1068328990105558</v>
+        <v>0.1495268499279124</v>
       </c>
       <c r="I34">
         <v>0.3069434167014695</v>
       </c>
       <c r="J34">
-        <v>0.1283895282717381</v>
+        <v>0.2807052296848523</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -765,13 +765,13 @@
         <v>0.1151694300460869</v>
       </c>
       <c r="G35">
-        <v>0.1082634434156332</v>
+        <v>0.1735520799911532</v>
       </c>
       <c r="I35">
         <v>0.3326320931704588</v>
       </c>
       <c r="J35">
-        <v>0.1283895282717381</v>
+        <v>0.3194686766349061</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -785,13 +785,13 @@
         <v>0.1104397189943666</v>
       </c>
       <c r="G36">
-        <v>0.09383318306041791</v>
+        <v>0.1288801126458364</v>
       </c>
       <c r="I36">
         <v>0.357741050746846</v>
       </c>
       <c r="J36">
-        <v>0.1283895282717381</v>
+        <v>0.3236784194490946</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -805,13 +805,13 @@
         <v>0.1058568700251475</v>
       </c>
       <c r="G37">
-        <v>0.07317766152414706</v>
+        <v>0.1000587394539133</v>
       </c>
       <c r="I37">
         <v>0.3829828941307025</v>
       </c>
       <c r="J37">
-        <v>0.1283895282717381</v>
+        <v>0.3834076125386361</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -825,13 +825,13 @@
         <v>0.1013117125656874</v>
       </c>
       <c r="G38">
-        <v>0.06446934284182268</v>
+        <v>0.09119569619323492</v>
       </c>
       <c r="I38">
         <v>0.4081942768239517</v>
       </c>
       <c r="J38">
-        <v>0.1283895282717381</v>
+        <v>0.3827254527952162</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -845,13 +845,13 @@
         <v>0.09677622846700024</v>
       </c>
       <c r="G39">
-        <v>0.05603252724686984</v>
+        <v>0.0726327300549505</v>
       </c>
       <c r="I39">
         <v>0.4334126418555705</v>
       </c>
       <c r="J39">
-        <v>0.1283895282717381</v>
+        <v>0.4469713022741353</v>
       </c>
     </row>
   </sheetData>
